--- a/StudentsDatabase.xlsx
+++ b/StudentsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Cosas Progra\TINGESO\TINGESO-EV-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE0585F-ED22-4E92-AE5D-4F76EC1705A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D1BFD7-1AA2-4527-9FB5-C628E2CDA5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/StudentsDatabase.xlsx
+++ b/StudentsDatabase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Cosas Progra\TINGESO\TINGESO-EV-02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D1BFD7-1AA2-4527-9FB5-C628E2CDA5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A03A498-6D89-4F40-9613-1CC792B8D35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
